--- a/Tribum que non abhorruit ; Quoniam secta latronum; Merito hec patimur.xlsx
+++ b/Tribum que non abhorruit ; Quoniam secta latronum; Merito hec patimur.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,7 +402,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -527,17 +527,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>quis</t>
+          <t>tantus</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fructus</t>
+          <t>quis</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -547,7 +547,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>melius</t>
+          <t>gaudium</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -557,7 +557,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>secundum</t>
+          <t>bonus</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -567,123 +567,143 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total Average</t>
+          <t>habeo</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total Sum</t>
+          <t>secundum</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Total Average</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Motetus Sentiment Words</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Sentiment Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>spelunca</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-1</v>
+          <t>Total Sum</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>subito</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-1</v>
+          <t>Motetus Sentiment Words</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sentiment Value</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>merito</t>
+          <t>spelunca</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dicta</t>
+          <t>tempus</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dolum</t>
+          <t>bonus</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Total Average</t>
+          <t>dolus</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Total Sum</t>
+          <t>casus</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-2</v>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Total Average</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Total Sum</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Sentiment Difference</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Sentiment Average Difference</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>0.7333333333333334</v>
+      <c r="B25" t="n">
+        <v>0.9333333333333333</v>
       </c>
     </row>
   </sheetData>
